--- a/Attack Tree/Attack Tree.xlsx
+++ b/Attack Tree/Attack Tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C8DFFC-AB8D-497E-B996-BE520008A8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA3D44F-E26D-4003-8D50-42A6046DB702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="690" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attakc Tree 1" sheetId="1" r:id="rId1"/>
@@ -1247,9 +1247,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1268,16 +1265,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1290,9 +1293,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1611,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1622,13 +1622,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1637,12 +1637,12 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1654,17 +1654,17 @@
       <c r="B3" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1673,17 +1673,17 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1700,8 +1700,8 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1716,24 +1716,24 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1750,8 +1750,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1766,8 +1766,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1782,8 +1782,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1798,23 +1798,23 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33.75">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1832,49 +1832,49 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1886,17 +1886,17 @@
       <c r="B17" s="2">
         <v>1.2</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1905,17 +1905,17 @@
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1932,8 +1932,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1948,40 +1948,40 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="12"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="12"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="12"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1998,8 +1998,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75">
-      <c r="A24" s="12"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
@@ -2014,8 +2014,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="22.5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
@@ -2030,8 +2030,8 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="12"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
@@ -2046,24 +2046,24 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="22.5">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2080,8 +2080,8 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
@@ -2096,8 +2096,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="22.5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="7" t="s">
         <v>4</v>
       </c>
@@ -2112,50 +2112,39 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="12"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="4" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
@@ -2168,6 +2157,17 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2178,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A74725-924F-4526-9504-DD549E056406}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2188,16 +2188,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2206,15 +2206,15 @@
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,20 +2226,20 @@
       <c r="B3" s="2">
         <v>2.1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2248,514 +2248,514 @@
       <c r="C4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="12"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="22.5">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="33.75">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="12"/>
+      <c r="D28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="11"/>
       <c r="F28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="12" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="33.75">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
@@ -2770,283 +2770,283 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="12"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="12" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="12"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="12"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="22.5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75">
-      <c r="A34" s="12"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="22.5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="33.75">
-      <c r="A36" s="12"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="12"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="12"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="12"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="12"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="12"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12" t="s">
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="12"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="12"/>
-      <c r="B43" s="14" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12" t="s">
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="12"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="12"/>
+      <c r="D44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="11"/>
       <c r="F44" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="33.75">
-      <c r="A45" s="12"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" s="13"/>
       <c r="F45" s="2" t="s">
         <v>4</v>
       </c>
@@ -3061,294 +3061,294 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="12"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="12"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="11"/>
       <c r="F46" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="12"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="12"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="11"/>
       <c r="F47" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="11"/>
       <c r="I47" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="12"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="12"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="11"/>
       <c r="F48" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H48" s="12"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="12"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
       <c r="I50" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="12"/>
+      <c r="D51" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="11"/>
       <c r="F51" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H51" s="12"/>
+      <c r="H51" s="11"/>
       <c r="I51" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="12"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="11"/>
       <c r="F52" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="H52" s="12"/>
+      <c r="H52" s="11"/>
       <c r="I52" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="12"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="11"/>
       <c r="F53" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H53" s="12"/>
+      <c r="H53" s="11"/>
       <c r="I53" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="22.5">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E54" s="12"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
       <c r="I54" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E55" s="12"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
       <c r="I55" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="13"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="14" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="12"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H56" s="12"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="13"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="14"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="H57" s="12"/>
+      <c r="H57" s="11"/>
       <c r="I57" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E58" s="12"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
       <c r="I58" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="12"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E59" s="21"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="12"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12" t="s">
+      <c r="E60" s="11"/>
+      <c r="F60" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
       <c r="I60" s="4" t="s">
         <v>208</v>
       </c>
@@ -3360,20 +3360,20 @@
       <c r="B61" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
       <c r="I61" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3382,39 +3382,39 @@
       <c r="C62" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
       <c r="I62" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="14"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
       <c r="I63" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3423,350 +3423,350 @@
       <c r="D64" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
       <c r="I64" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12" t="s">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="12"/>
+      <c r="H65" s="11"/>
       <c r="I65" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="45">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
       <c r="I66" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
       <c r="I68" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12" t="s">
+      <c r="F70" s="11"/>
+      <c r="G70" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H70" s="12"/>
+      <c r="H70" s="11"/>
       <c r="I70" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="22.5">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
       <c r="I71" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="22.5">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
       <c r="I72" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
       <c r="I73" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="22.5">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14" t="s">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12" t="s">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="H74" s="12"/>
+      <c r="H74" s="11"/>
       <c r="I74" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12" t="s">
+      <c r="F75" s="11"/>
+      <c r="G75" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="H75" s="12"/>
+      <c r="H75" s="11"/>
       <c r="I75" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="22.5">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12" t="s">
+      <c r="F76" s="11"/>
+      <c r="G76" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="H76" s="12"/>
+      <c r="H76" s="11"/>
       <c r="I76" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="22.5">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
       <c r="D77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12" t="s">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="12"/>
+      <c r="H77" s="11"/>
       <c r="I77" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
       <c r="I78" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="24" customHeight="1">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12" t="s">
+      <c r="F79" s="11"/>
+      <c r="G79" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="H79" s="12"/>
+      <c r="H79" s="11"/>
       <c r="I79" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="22.5">
-      <c r="A80" s="14"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
       <c r="I80" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="14"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14" t="s">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3775,52 +3775,52 @@
       <c r="D82" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
       <c r="I82" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="33.75">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14" t="s">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12" t="s">
+      <c r="F83" s="11"/>
+      <c r="G83" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="H83" s="12"/>
+      <c r="H83" s="11"/>
       <c r="I83" s="4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12" t="s">
+      <c r="F84" s="11"/>
+      <c r="G84" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H84" s="12"/>
+      <c r="H84" s="11"/>
       <c r="I84" s="4" t="s">
         <v>257</v>
       </c>
@@ -3832,20 +3832,20 @@
       <c r="B85" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
       <c r="I85" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3854,19 +3854,19 @@
       <c r="C86" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
       <c r="I86" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="14"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="5" t="s">
         <v>42</v>
       </c>
@@ -3876,35 +3876,134 @@
       <c r="D87" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
       <c r="I87" s="4" t="s">
         <v>263</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:A60"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="B27:B41"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="E69:H69"/>
     <mergeCell ref="E70:F70"/>
     <mergeCell ref="G70:H70"/>
@@ -3929,122 +4028,23 @@
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="E77:F77"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="B27:B41"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:A60"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4056,7 +4056,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4066,13 +4066,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4081,11 +4081,11 @@
       <c r="A2" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="19"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -4098,17 +4098,17 @@
       <c r="B3" s="2">
         <v>3.1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="19"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4117,7 +4117,7 @@
       <c r="C4" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>171</v>
       </c>
       <c r="E4" s="19"/>
@@ -4126,7 +4126,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="33.75">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -4150,17 +4150,17 @@
       <c r="B6" s="2">
         <v>3.2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="19"/>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4169,7 +4169,7 @@
       <c r="C7" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="19"/>
@@ -4178,8 +4178,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="26"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4196,8 +4196,8 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="26"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
@@ -4212,14 +4212,14 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="26"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="19"/>
@@ -4228,14 +4228,14 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="26"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="19"/>
@@ -4244,8 +4244,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.5">
-      <c r="A12" s="26"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -4262,8 +4262,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="33.75">
-      <c r="A13" s="26"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -4278,8 +4278,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="22.5">
-      <c r="A14" s="26"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
@@ -4294,8 +4294,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="22.5">
-      <c r="A15" s="26"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
@@ -4310,14 +4310,14 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="26"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="19"/>
@@ -4326,8 +4326,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="22.5">
-      <c r="A17" s="26"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -4344,8 +4344,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="26"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
@@ -4360,8 +4360,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.5">
-      <c r="A19" s="26"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
@@ -4376,14 +4376,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.5">
-      <c r="A20" s="26"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E20" s="19"/>
@@ -4392,14 +4392,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="21"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="19"/>
@@ -4409,6 +4409,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="A7:A21"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:B9"/>
@@ -4419,12 +4425,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4436,7 +4436,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4446,13 +4446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4461,12 +4461,12 @@
       <c r="A2" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
@@ -4478,17 +4478,17 @@
       <c r="B3" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4497,16 +4497,16 @@
       <c r="C4" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.5">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -4530,17 +4530,17 @@
       <c r="B6" s="2">
         <v>4.2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4549,17 +4549,17 @@
       <c r="C7" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4576,8 +4576,8 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
@@ -4592,8 +4592,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
@@ -4608,8 +4608,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -4624,8 +4624,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -4640,23 +4640,23 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
@@ -4674,23 +4674,23 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="33.75">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
@@ -4708,39 +4708,39 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="4" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
         <v>42</v>
       </c>
@@ -4758,23 +4758,23 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
@@ -4792,33 +4792,33 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="4" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="4" t="s">
         <v>320</v>
       </c>
@@ -4830,17 +4830,17 @@
       <c r="B24" s="2">
         <v>4.3</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4849,16 +4849,16 @@
       <c r="C25" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33.75">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
@@ -4876,56 +4876,56 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="22.5">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="22.5">
-      <c r="A30" s="16"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -4942,8 +4942,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="22.5">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
@@ -4958,8 +4958,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="22.5">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
@@ -4974,8 +4974,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="22.5">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
@@ -4990,23 +4990,23 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="22.5">
-      <c r="A35" s="17"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -5025,14 +5025,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="A7:A23"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:B12"/>
@@ -5043,14 +5041,17 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Attack Tree/Attack Tree.xlsx
+++ b/Attack Tree/Attack Tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA3D44F-E26D-4003-8D50-42A6046DB702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38729E2-9FFB-4B0D-AF0E-420231CFD7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attakc Tree 1" sheetId="1" r:id="rId1"/>
@@ -1247,6 +1247,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1265,22 +1268,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1293,6 +1290,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1611,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -1622,13 +1622,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1637,12 +1637,12 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1654,17 +1654,17 @@
       <c r="B3" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1673,17 +1673,17 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1700,8 +1700,8 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1716,24 +1716,24 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1750,8 +1750,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1766,8 +1766,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1782,8 +1782,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1798,23 +1798,23 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33.75">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1832,49 +1832,49 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1886,17 +1886,17 @@
       <c r="B17" s="2">
         <v>1.2</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1905,17 +1905,17 @@
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1932,8 +1932,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1948,40 +1948,40 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1998,8 +1998,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75">
-      <c r="A24" s="11"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
@@ -2014,8 +2014,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="22.5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
@@ -2030,8 +2030,8 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
@@ -2046,24 +2046,24 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="22.5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2080,8 +2080,8 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
@@ -2096,8 +2096,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="22.5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="7" t="s">
         <v>4</v>
       </c>
@@ -2112,39 +2112,50 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="4" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
@@ -2157,17 +2168,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2188,16 +2188,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2206,15 +2206,15 @@
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,20 +2226,20 @@
       <c r="B3" s="2">
         <v>2.1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2248,514 +2248,514 @@
       <c r="C4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="22.5">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="33.75">
-      <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="11"/>
+      <c r="D28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="12"/>
       <c r="F28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="11"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="11" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="11"/>
+      <c r="H29" s="12"/>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="33.75">
-      <c r="A30" s="11"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
@@ -2770,283 +2770,283 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="11"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="11" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="12"/>
       <c r="F32" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="22.5">
-      <c r="A33" s="11"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75">
-      <c r="A34" s="11"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="22.5">
-      <c r="A35" s="11"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="33.75">
-      <c r="A36" s="11"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="11"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
       <c r="I37" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="11"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="11"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11" t="s">
+      <c r="E39" s="12"/>
+      <c r="F39" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
       <c r="I39" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="11"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11" t="s">
+      <c r="E40" s="12"/>
+      <c r="F40" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
       <c r="I40" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="11"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11" t="s">
+      <c r="E41" s="12"/>
+      <c r="F41" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
       <c r="I41" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="11"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="11"/>
-      <c r="B43" s="13" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11" t="s">
+      <c r="E43" s="12"/>
+      <c r="F43" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="11"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="11"/>
+      <c r="D44" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="12"/>
       <c r="F44" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="12"/>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="33.75">
-      <c r="A45" s="11"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="13"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="2" t="s">
         <v>4</v>
       </c>
@@ -3061,294 +3061,294 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="11"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="11"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="12"/>
       <c r="F46" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="11"/>
+      <c r="H46" s="12"/>
       <c r="I46" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="11"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="11"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="12"/>
       <c r="F47" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="H47" s="11"/>
+      <c r="H47" s="12"/>
       <c r="I47" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="11"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="11"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="12"/>
       <c r="F48" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="H48" s="11"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="11"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E50" s="11"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
       <c r="I50" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="11"/>
+      <c r="D51" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="12"/>
       <c r="F51" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="H51" s="12"/>
       <c r="I51" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="11"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="12"/>
       <c r="F52" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H52" s="11"/>
+      <c r="H52" s="12"/>
       <c r="I52" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="11"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="12"/>
       <c r="F53" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H53" s="11"/>
+      <c r="H53" s="12"/>
       <c r="I53" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="22.5">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E54" s="11"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
       <c r="I54" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="E55" s="11"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
       <c r="I55" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="12"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="13" t="s">
+      <c r="A56" s="13"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="11"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="H56" s="11"/>
+      <c r="H56" s="12"/>
       <c r="I56" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="12"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="13"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="11"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="H57" s="11"/>
+      <c r="H57" s="12"/>
       <c r="I57" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E58" s="11"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
       <c r="I58" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="11"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="11"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11" t="s">
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
       <c r="I60" s="4" t="s">
         <v>208</v>
       </c>
@@ -3360,20 +3360,20 @@
       <c r="B61" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
       <c r="I61" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3382,39 +3382,39 @@
       <c r="C62" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
       <c r="I62" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="13"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
       <c r="I63" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3423,350 +3423,350 @@
       <c r="D64" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
       <c r="I64" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11" t="s">
+      <c r="F65" s="12"/>
+      <c r="G65" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="11"/>
+      <c r="H65" s="12"/>
       <c r="I65" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="45">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
       <c r="I66" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
       <c r="I67" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
       <c r="I68" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
       <c r="I69" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11" t="s">
+      <c r="F70" s="12"/>
+      <c r="G70" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="H70" s="11"/>
+      <c r="H70" s="12"/>
       <c r="I70" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="22.5">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
       <c r="I71" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="22.5">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
       <c r="I72" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
       <c r="I73" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="22.5">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11" t="s">
+      <c r="F74" s="12"/>
+      <c r="G74" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="H74" s="11"/>
+      <c r="H74" s="12"/>
       <c r="I74" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11" t="s">
+      <c r="F75" s="12"/>
+      <c r="G75" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="H75" s="11"/>
+      <c r="H75" s="12"/>
       <c r="I75" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="22.5">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11" t="s">
+      <c r="F76" s="12"/>
+      <c r="G76" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H76" s="11"/>
+      <c r="H76" s="12"/>
       <c r="I76" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="22.5">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11" t="s">
+      <c r="F77" s="12"/>
+      <c r="G77" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="11"/>
+      <c r="H77" s="12"/>
       <c r="I77" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
       <c r="I78" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="24" customHeight="1">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11" t="s">
+      <c r="F79" s="12"/>
+      <c r="G79" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H79" s="11"/>
+      <c r="H79" s="12"/>
       <c r="I79" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="22.5">
-      <c r="A80" s="13"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
       <c r="I80" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="13"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13" t="s">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3775,52 +3775,52 @@
       <c r="D82" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
       <c r="I82" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="33.75">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13" t="s">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11" t="s">
+      <c r="F83" s="12"/>
+      <c r="G83" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H83" s="11"/>
+      <c r="H83" s="12"/>
       <c r="I83" s="4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11" t="s">
+      <c r="F84" s="12"/>
+      <c r="G84" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H84" s="11"/>
+      <c r="H84" s="12"/>
       <c r="I84" s="4" t="s">
         <v>257</v>
       </c>
@@ -3832,20 +3832,20 @@
       <c r="B85" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
       <c r="I85" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3854,19 +3854,19 @@
       <c r="C86" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
       <c r="I86" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="13"/>
+      <c r="A87" s="14"/>
       <c r="B87" s="5" t="s">
         <v>42</v>
       </c>
@@ -3876,18 +3876,151 @@
       <c r="D87" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
       <c r="I87" s="4" t="s">
         <v>263</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="157">
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="A62:A84"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="B64:B79"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="B27:B41"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D8:E8"/>
@@ -3912,139 +4045,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="B27:B41"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="A62:A84"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="B64:B79"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4066,13 +4066,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4081,11 +4081,11 @@
       <c r="A2" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="19"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -4098,17 +4098,17 @@
       <c r="B3" s="2">
         <v>3.1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="19"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4117,7 +4117,7 @@
       <c r="C4" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>171</v>
       </c>
       <c r="E4" s="19"/>
@@ -4126,7 +4126,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="33.75">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -4150,17 +4150,17 @@
       <c r="B6" s="2">
         <v>3.2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="19"/>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4169,7 +4169,7 @@
       <c r="C7" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="19"/>
@@ -4178,8 +4178,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4196,8 +4196,8 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
@@ -4212,14 +4212,14 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="19"/>
@@ -4228,14 +4228,14 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="19"/>
@@ -4244,8 +4244,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.5">
-      <c r="A12" s="22"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -4262,8 +4262,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="33.75">
-      <c r="A13" s="22"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -4278,8 +4278,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="22.5">
-      <c r="A14" s="22"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
@@ -4294,8 +4294,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="22.5">
-      <c r="A15" s="22"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
@@ -4310,14 +4310,14 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="22"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="19"/>
@@ -4326,8 +4326,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="22.5">
-      <c r="A17" s="22"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -4344,8 +4344,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
@@ -4360,8 +4360,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.5">
-      <c r="A19" s="22"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
@@ -4376,14 +4376,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.5">
-      <c r="A20" s="22"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E20" s="19"/>
@@ -4392,14 +4392,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="19"/>
@@ -4409,12 +4409,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="A7:A21"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:B9"/>
@@ -4425,6 +4419,12 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4435,7 +4435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9CDAD5-439C-42F2-8757-F6390CD38819}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -4446,13 +4446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4461,12 +4461,12 @@
       <c r="A2" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
@@ -4478,17 +4478,17 @@
       <c r="B3" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4497,16 +4497,16 @@
       <c r="C4" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.5">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -4530,17 +4530,17 @@
       <c r="B6" s="2">
         <v>4.2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4549,17 +4549,17 @@
       <c r="C7" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4576,8 +4576,8 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
@@ -4592,8 +4592,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
@@ -4608,8 +4608,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -4624,8 +4624,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -4640,23 +4640,23 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
@@ -4674,23 +4674,23 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="33.75">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
@@ -4708,39 +4708,39 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="4" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="5" t="s">
         <v>42</v>
       </c>
@@ -4758,23 +4758,23 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
@@ -4792,33 +4792,33 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="4" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="4" t="s">
         <v>320</v>
       </c>
@@ -4830,17 +4830,17 @@
       <c r="B24" s="2">
         <v>4.3</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4849,16 +4849,16 @@
       <c r="C25" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33.75">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
@@ -4876,56 +4876,56 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="22.5">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="22.5">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -4942,8 +4942,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="22.5">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
@@ -4958,8 +4958,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="22.5">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
@@ -4974,8 +4974,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="22.5">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
@@ -4990,23 +4990,23 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="22.5">
-      <c r="A35" s="16"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -5025,12 +5025,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="A7:A23"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:B12"/>
@@ -5041,14 +5043,12 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
